--- a/SMCPaste_Template_v4.xlsx
+++ b/SMCPaste_Template_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtoerpe/Projects/aws-smc-reloaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BF564F-A3DC-F64B-BD05-10A893E8F9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFF8C1-859B-1B4F-AED8-5B198AEFFAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29880" yWindow="1360" windowWidth="34280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SMCPaste_Template_v4.xlsx
+++ b/SMCPaste_Template_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtoerpe/Projects/aws-smc-reloaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFF8C1-859B-1B4F-AED8-5B198AEFFAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDC90B-A764-2F47-AA9D-51429CAB9752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29880" yWindow="1360" windowWidth="34280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SMCPaste_Template_v4.xlsx
+++ b/SMCPaste_Template_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtoerpe/Projects/aws-smc-reloaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDC90B-A764-2F47-AA9D-51429CAB9752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C4381-FDD6-E641-8E56-413AA8226FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1360" windowWidth="34280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29520" yWindow="520" windowWidth="34280" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
